--- a/Municípios/Data/PPM_vacas_ordenhadas.xlsx
+++ b/Municípios/Data/PPM_vacas_ordenhadas.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -400,10 +407,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C2" s="2">
+        <v>44926</v>
       </c>
       <c r="D2">
         <v>260</v>
@@ -428,10 +433,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C3" s="2">
+        <v>43465</v>
       </c>
       <c r="D3">
         <v>215</v>
@@ -456,10 +459,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C4" s="2">
+        <v>44561</v>
       </c>
       <c r="D4">
         <v>215</v>
@@ -484,10 +485,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C5" s="2">
+        <v>44196</v>
       </c>
       <c r="D5">
         <v>210</v>
@@ -512,10 +511,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C6" s="2">
+        <v>43830</v>
       </c>
       <c r="D6">
         <v>202</v>
@@ -540,10 +537,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C7" s="2">
+        <v>44561</v>
       </c>
       <c r="D7">
         <v>3800</v>
@@ -568,10 +563,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C8" s="2">
+        <v>44926</v>
       </c>
       <c r="D8">
         <v>3777</v>
@@ -596,10 +589,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C9" s="2">
+        <v>43830</v>
       </c>
       <c r="D9">
         <v>3300</v>
@@ -624,10 +615,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C10" s="2">
+        <v>44196</v>
       </c>
       <c r="D10">
         <v>3270</v>
@@ -652,10 +641,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C11" s="2">
+        <v>43465</v>
       </c>
       <c r="D11">
         <v>3220</v>
@@ -680,10 +667,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C12" s="2">
+        <v>44561</v>
       </c>
       <c r="D12">
         <v>53</v>
@@ -708,10 +693,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C13" s="2">
+        <v>43830</v>
       </c>
       <c r="D13">
         <v>51</v>
@@ -736,10 +719,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C14" s="2">
+        <v>43465</v>
       </c>
       <c r="D14">
         <v>47</v>
@@ -764,10 +745,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C15" s="2">
+        <v>44196</v>
       </c>
       <c r="D15">
         <v>45</v>
@@ -792,10 +771,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C16" s="2">
+        <v>44926</v>
       </c>
       <c r="D16">
         <v>45</v>
@@ -820,10 +797,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C17" s="2">
+        <v>43830</v>
       </c>
       <c r="D17">
         <v>945</v>
@@ -848,10 +823,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C18" s="2">
+        <v>44561</v>
       </c>
       <c r="D18">
         <v>897</v>
@@ -876,10 +849,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C19" s="2">
+        <v>43465</v>
       </c>
       <c r="D19">
         <v>890</v>
@@ -904,10 +875,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C20" s="2">
+        <v>44926</v>
       </c>
       <c r="D20">
         <v>886</v>
@@ -932,10 +901,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C21" s="2">
+        <v>44196</v>
       </c>
       <c r="D21">
         <v>860</v>
@@ -960,10 +927,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C22" s="2">
+        <v>44561</v>
       </c>
       <c r="D22">
         <v>1015</v>
@@ -988,10 +953,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C23" s="2">
+        <v>43830</v>
       </c>
       <c r="D23">
         <v>960</v>
@@ -1016,10 +979,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C24" s="2">
+        <v>43465</v>
       </c>
       <c r="D24">
         <v>947</v>
@@ -1044,10 +1005,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C25" s="2">
+        <v>44196</v>
       </c>
       <c r="D25">
         <v>910</v>
@@ -1072,10 +1031,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C26" s="2">
+        <v>44926</v>
       </c>
       <c r="D26">
         <v>848</v>
@@ -1100,10 +1057,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C27" s="2">
+        <v>44926</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1128,10 +1083,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C28" s="2">
+        <v>43465</v>
       </c>
       <c r="D28">
         <v>32</v>
@@ -1156,10 +1109,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C29" s="2">
+        <v>43830</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -1184,10 +1135,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C30" s="2">
+        <v>44561</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -1212,10 +1161,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C31" s="2">
+        <v>44196</v>
       </c>
       <c r="D31">
         <v>28</v>
@@ -1240,10 +1187,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C32" s="2">
+        <v>44926</v>
       </c>
       <c r="D32">
         <v>1329</v>
@@ -1268,10 +1213,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C33" s="2">
+        <v>43465</v>
       </c>
       <c r="D33">
         <v>1262</v>
@@ -1296,10 +1239,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C34" s="2">
+        <v>43830</v>
       </c>
       <c r="D34">
         <v>1260</v>
@@ -1324,10 +1265,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C35" s="2">
+        <v>44561</v>
       </c>
       <c r="D35">
         <v>1210</v>
@@ -1352,10 +1291,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C36" s="2">
+        <v>44196</v>
       </c>
       <c r="D36">
         <v>1180</v>
@@ -1380,10 +1317,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C37" s="2">
+        <v>44926</v>
       </c>
       <c r="D37">
         <v>185</v>
@@ -1408,10 +1343,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C38" s="2">
+        <v>44561</v>
       </c>
       <c r="D38">
         <v>180</v>
@@ -1436,10 +1369,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C39" s="2">
+        <v>44196</v>
       </c>
       <c r="D39">
         <v>148</v>
@@ -1464,10 +1395,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C40" s="2">
+        <v>43830</v>
       </c>
       <c r="D40">
         <v>130</v>
@@ -1492,10 +1421,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C41" s="2">
+        <v>43465</v>
       </c>
       <c r="D41">
         <v>129</v>
@@ -1520,10 +1447,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C42" s="2">
+        <v>43830</v>
       </c>
       <c r="D42">
         <v>2038</v>
@@ -1548,10 +1473,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C43" s="2">
+        <v>44196</v>
       </c>
       <c r="D43">
         <v>2010</v>
@@ -1576,10 +1499,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C44" s="2">
+        <v>43465</v>
       </c>
       <c r="D44">
         <v>1941</v>
@@ -1604,10 +1525,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C45" s="2">
+        <v>44561</v>
       </c>
       <c r="D45">
         <v>1690</v>
@@ -1632,10 +1551,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C46" s="2">
+        <v>44926</v>
       </c>
       <c r="D46">
         <v>1511</v>
@@ -1660,10 +1577,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C47" s="2">
+        <v>43830</v>
       </c>
       <c r="D47">
         <v>2479</v>
@@ -1688,10 +1603,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C48" s="2">
+        <v>43465</v>
       </c>
       <c r="D48">
         <v>2427</v>
@@ -1716,10 +1629,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C49" s="2">
+        <v>44926</v>
       </c>
       <c r="D49">
         <v>2405</v>
@@ -1744,10 +1655,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C50" s="2">
+        <v>44561</v>
       </c>
       <c r="D50">
         <v>2395</v>
@@ -1772,10 +1681,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C51" s="2">
+        <v>44196</v>
       </c>
       <c r="D51">
         <v>2370</v>
@@ -1800,10 +1707,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C52" s="2">
+        <v>43465</v>
       </c>
       <c r="D52">
         <v>9206</v>
@@ -1828,10 +1733,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C53" s="2">
+        <v>44926</v>
       </c>
       <c r="D53">
         <v>9023</v>
@@ -1856,10 +1759,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C54" s="2">
+        <v>44561</v>
       </c>
       <c r="D54">
         <v>8260</v>
@@ -1884,10 +1785,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C55" s="2">
+        <v>44196</v>
       </c>
       <c r="D55">
         <v>7920</v>
@@ -1912,10 +1811,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C56" s="2">
+        <v>43830</v>
       </c>
       <c r="D56">
         <v>7560</v>
@@ -1940,10 +1837,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C57" s="2">
+        <v>43465</v>
       </c>
       <c r="D57">
         <v>2450</v>
@@ -1968,10 +1863,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C58" s="2">
+        <v>44926</v>
       </c>
       <c r="D58">
         <v>2380</v>
@@ -1996,10 +1889,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C59" s="2">
+        <v>44561</v>
       </c>
       <c r="D59">
         <v>2170</v>
@@ -2024,10 +1915,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C60" s="2">
+        <v>44196</v>
       </c>
       <c r="D60">
         <v>2150</v>
@@ -2052,10 +1941,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C61" s="2">
+        <v>43830</v>
       </c>
       <c r="D61">
         <v>2100</v>
@@ -2080,10 +1967,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C62" s="2">
+        <v>44926</v>
       </c>
       <c r="D62">
         <v>6753</v>
@@ -2108,10 +1993,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C63" s="2">
+        <v>44561</v>
       </c>
       <c r="D63">
         <v>6140</v>
@@ -2136,10 +2019,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C64" s="2">
+        <v>43465</v>
       </c>
       <c r="D64">
         <v>6116</v>
@@ -2164,10 +2045,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C65" s="2">
+        <v>43830</v>
       </c>
       <c r="D65">
         <v>5900</v>
@@ -2192,10 +2071,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C66" s="2">
+        <v>44196</v>
       </c>
       <c r="D66">
         <v>5870</v>
@@ -2220,10 +2097,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C67" s="2">
+        <v>43465</v>
       </c>
       <c r="D67">
         <v>112</v>
@@ -2248,10 +2123,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C68" s="2">
+        <v>43830</v>
       </c>
       <c r="D68">
         <v>109</v>
@@ -2276,10 +2149,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C69" s="2">
+        <v>44196</v>
       </c>
       <c r="D69">
         <v>98</v>
@@ -2304,10 +2175,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C70" s="2">
+        <v>44926</v>
       </c>
       <c r="D70">
         <v>97</v>
@@ -2332,10 +2201,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C71" s="2">
+        <v>44561</v>
       </c>
       <c r="D71">
         <v>82</v>
@@ -2360,10 +2227,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C72" s="2">
+        <v>44926</v>
       </c>
       <c r="D72">
         <v>405</v>
@@ -2388,10 +2253,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C73" s="2">
+        <v>44561</v>
       </c>
       <c r="D73">
         <v>394</v>
@@ -2416,10 +2279,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C74" s="2">
+        <v>44196</v>
       </c>
       <c r="D74">
         <v>365</v>
@@ -2444,10 +2305,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C75" s="2">
+        <v>43465</v>
       </c>
       <c r="D75">
         <v>360</v>
@@ -2472,10 +2331,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C76" s="2">
+        <v>43830</v>
       </c>
       <c r="D76">
         <v>352</v>
@@ -2500,10 +2357,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C77" s="2">
+        <v>43465</v>
       </c>
       <c r="D77">
         <v>1150</v>
@@ -2528,10 +2383,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C78" s="2">
+        <v>43830</v>
       </c>
       <c r="D78">
         <v>1070</v>
@@ -2556,10 +2409,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C79" s="2">
+        <v>44561</v>
       </c>
       <c r="D79">
         <v>1010</v>
@@ -2584,10 +2435,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C80" s="2">
+        <v>44196</v>
       </c>
       <c r="D80">
         <v>990</v>
@@ -2612,10 +2461,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C81" s="2">
+        <v>44926</v>
       </c>
       <c r="D81">
         <v>910</v>
@@ -2640,10 +2487,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C82" s="2">
+        <v>44926</v>
       </c>
       <c r="D82">
         <v>1130</v>
@@ -2668,10 +2513,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C83" s="2">
+        <v>43465</v>
       </c>
       <c r="D83">
         <v>920</v>
@@ -2696,10 +2539,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C84" s="2">
+        <v>44196</v>
       </c>
       <c r="D84">
         <v>880</v>
@@ -2724,10 +2565,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C85" s="2">
+        <v>44561</v>
       </c>
       <c r="D85">
         <v>870</v>
@@ -2752,10 +2591,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C86" s="2">
+        <v>43830</v>
       </c>
       <c r="D86">
         <v>840</v>
@@ -2780,10 +2617,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C87" s="2">
+        <v>44561</v>
       </c>
       <c r="D87">
         <v>225</v>
@@ -2808,10 +2643,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C88" s="2">
+        <v>44926</v>
       </c>
       <c r="D88">
         <v>217</v>
@@ -2836,10 +2669,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C89" s="2">
+        <v>43830</v>
       </c>
       <c r="D89">
         <v>204</v>
@@ -2864,10 +2695,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C90" s="2">
+        <v>44196</v>
       </c>
       <c r="D90">
         <v>188</v>
@@ -2892,10 +2721,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C91" s="2">
+        <v>43465</v>
       </c>
       <c r="D91">
         <v>184</v>
@@ -2920,10 +2747,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C92" s="2">
+        <v>44196</v>
       </c>
       <c r="D92">
         <v>1550</v>
@@ -2948,10 +2773,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C93" s="2">
+        <v>43830</v>
       </c>
       <c r="D93">
         <v>1515</v>
@@ -2976,10 +2799,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C94" s="2">
+        <v>43465</v>
       </c>
       <c r="D94">
         <v>1439</v>
@@ -3004,10 +2825,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C95" s="2">
+        <v>44561</v>
       </c>
       <c r="D95">
         <v>1420</v>
@@ -3032,10 +2851,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C96" s="2">
+        <v>44926</v>
       </c>
       <c r="D96">
         <v>1380</v>
@@ -3060,10 +2877,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C97" s="2">
+        <v>44926</v>
       </c>
       <c r="D97">
         <v>3040</v>
@@ -3088,10 +2903,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C98" s="2">
+        <v>44561</v>
       </c>
       <c r="D98">
         <v>2780</v>
@@ -3116,10 +2929,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C99" s="2">
+        <v>44196</v>
       </c>
       <c r="D99">
         <v>2640</v>
@@ -3144,10 +2955,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C100" s="2">
+        <v>43465</v>
       </c>
       <c r="D100">
         <v>2490</v>
@@ -3172,10 +2981,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C101" s="2">
+        <v>43830</v>
       </c>
       <c r="D101">
         <v>2350</v>
@@ -3200,10 +3007,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C102" s="2">
+        <v>44561</v>
       </c>
       <c r="D102">
         <v>3760</v>
@@ -3228,10 +3033,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C103" s="2">
+        <v>44196</v>
       </c>
       <c r="D103">
         <v>3430</v>
@@ -3256,10 +3059,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C104" s="2">
+        <v>44926</v>
       </c>
       <c r="D104">
         <v>3294</v>
@@ -3284,10 +3085,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C105" s="2">
+        <v>43830</v>
       </c>
       <c r="D105">
         <v>3126</v>
@@ -3312,10 +3111,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C106" s="2">
+        <v>43465</v>
       </c>
       <c r="D106">
         <v>3064</v>
@@ -3340,10 +3137,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C107" s="2">
+        <v>43465</v>
       </c>
       <c r="D107">
         <v>8815</v>
@@ -3368,10 +3163,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C108" s="2">
+        <v>43830</v>
       </c>
       <c r="D108">
         <v>8750</v>
@@ -3396,10 +3189,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C109" s="2">
+        <v>44196</v>
       </c>
       <c r="D109">
         <v>8450</v>
@@ -3424,10 +3215,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C110" s="2">
+        <v>44926</v>
       </c>
       <c r="D110">
         <v>8380</v>
@@ -3452,10 +3241,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C111" s="2">
+        <v>44561</v>
       </c>
       <c r="D111">
         <v>7850</v>
@@ -3480,10 +3267,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C112" s="2">
+        <v>43465</v>
       </c>
       <c r="D112">
         <v>156</v>
@@ -3508,10 +3293,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C113" s="2">
+        <v>43830</v>
       </c>
       <c r="D113">
         <v>145</v>
@@ -3536,10 +3319,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C114" s="2">
+        <v>44561</v>
       </c>
       <c r="D114">
         <v>132</v>
@@ -3564,10 +3345,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C115" s="2">
+        <v>44196</v>
       </c>
       <c r="D115">
         <v>124</v>
@@ -3592,10 +3371,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C116" s="2">
+        <v>44926</v>
       </c>
       <c r="D116">
         <v>120</v>
@@ -3620,10 +3397,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C117" s="2">
+        <v>44926</v>
       </c>
       <c r="D117">
         <v>3340</v>
@@ -3648,10 +3423,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C118" s="2">
+        <v>44561</v>
       </c>
       <c r="D118">
         <v>2320</v>
@@ -3676,10 +3449,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C119" s="2">
+        <v>44196</v>
       </c>
       <c r="D119">
         <v>2260</v>
@@ -3704,10 +3475,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C120" s="2">
+        <v>43465</v>
       </c>
       <c r="D120">
         <v>2240</v>
@@ -3732,10 +3501,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C121" s="2">
+        <v>43830</v>
       </c>
       <c r="D121">
         <v>2150</v>
@@ -3760,10 +3527,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C122" s="2">
+        <v>44926</v>
       </c>
       <c r="D122">
         <v>120</v>
@@ -3774,7 +3539,7 @@
         </is>
       </c>
       <c r="F122">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123">
@@ -3788,10 +3553,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C123" s="2">
+        <v>43465</v>
       </c>
       <c r="D123">
         <v>118</v>
@@ -3816,10 +3579,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C124" s="2">
+        <v>44196</v>
       </c>
       <c r="D124">
         <v>118</v>
@@ -3844,10 +3605,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C125" s="2">
+        <v>44561</v>
       </c>
       <c r="D125">
         <v>109</v>
@@ -3872,10 +3631,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C126" s="2">
+        <v>43830</v>
       </c>
       <c r="D126">
         <v>108</v>
@@ -3900,10 +3657,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C127" s="2">
+        <v>43465</v>
       </c>
       <c r="D127">
         <v>276</v>
@@ -3928,10 +3683,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C128" s="2">
+        <v>43830</v>
       </c>
       <c r="D128">
         <v>241</v>
@@ -3956,10 +3709,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C129" s="2">
+        <v>44561</v>
       </c>
       <c r="D129">
         <v>236</v>
@@ -3984,10 +3735,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C130" s="2">
+        <v>44196</v>
       </c>
       <c r="D130">
         <v>228</v>
@@ -4012,10 +3761,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C131" s="2">
+        <v>44926</v>
       </c>
       <c r="D131">
         <v>212</v>
@@ -4040,10 +3787,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C132" s="2">
+        <v>44561</v>
       </c>
       <c r="D132">
         <v>5920</v>
@@ -4068,10 +3813,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C133" s="2">
+        <v>44196</v>
       </c>
       <c r="D133">
         <v>5700</v>
@@ -4096,10 +3839,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C134" s="2">
+        <v>43830</v>
       </c>
       <c r="D134">
         <v>5522</v>
@@ -4124,10 +3865,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C135" s="2">
+        <v>43465</v>
       </c>
       <c r="D135">
         <v>5440</v>
@@ -4152,10 +3891,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C136" s="2">
+        <v>44926</v>
       </c>
       <c r="D136">
         <v>5165</v>
@@ -4180,10 +3917,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C137" s="2">
+        <v>43465</v>
       </c>
       <c r="D137">
         <v>2028</v>
@@ -4208,10 +3943,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C138" s="2">
+        <v>43830</v>
       </c>
       <c r="D138">
         <v>1965</v>
@@ -4236,10 +3969,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C139" s="2">
+        <v>44926</v>
       </c>
       <c r="D139">
         <v>1920</v>
@@ -4264,10 +3995,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C140" s="2">
+        <v>44561</v>
       </c>
       <c r="D140">
         <v>1784</v>
@@ -4292,10 +4021,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C141" s="2">
+        <v>44196</v>
       </c>
       <c r="D141">
         <v>1760</v>
@@ -4320,10 +4047,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C142" s="2">
+        <v>43465</v>
       </c>
       <c r="D142">
         <v>3430</v>
@@ -4348,10 +4073,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C143" s="2">
+        <v>44926</v>
       </c>
       <c r="D143">
         <v>3390</v>
@@ -4376,10 +4099,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C144" s="2">
+        <v>44561</v>
       </c>
       <c r="D144">
         <v>3230</v>
@@ -4404,10 +4125,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C145" s="2">
+        <v>44196</v>
       </c>
       <c r="D145">
         <v>3150</v>
@@ -4432,10 +4151,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C146" s="2">
+        <v>43830</v>
       </c>
       <c r="D146">
         <v>2800</v>
@@ -4460,10 +4177,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C147" s="2">
+        <v>44561</v>
       </c>
       <c r="D147">
         <v>920</v>
@@ -4488,10 +4203,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C148" s="2">
+        <v>44926</v>
       </c>
       <c r="D148">
         <v>897</v>
@@ -4516,10 +4229,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C149" s="2">
+        <v>44196</v>
       </c>
       <c r="D149">
         <v>804</v>
@@ -4544,10 +4255,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C150" s="2">
+        <v>43830</v>
       </c>
       <c r="D150">
         <v>756</v>
@@ -4572,10 +4281,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C151" s="2">
+        <v>43465</v>
       </c>
       <c r="D151">
         <v>721</v>
@@ -4600,10 +4307,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C152" s="2">
+        <v>43465</v>
       </c>
       <c r="D152">
         <v>895</v>
@@ -4628,10 +4333,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C153" s="2">
+        <v>43830</v>
       </c>
       <c r="D153">
         <v>880</v>
@@ -4656,10 +4359,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C154" s="2">
+        <v>44926</v>
       </c>
       <c r="D154">
         <v>880</v>
@@ -4684,10 +4385,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C155" s="2">
+        <v>44196</v>
       </c>
       <c r="D155">
         <v>870</v>
@@ -4712,10 +4411,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C156" s="2">
+        <v>44561</v>
       </c>
       <c r="D156">
         <v>865</v>
@@ -4740,10 +4437,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C157" s="2">
+        <v>43465</v>
       </c>
       <c r="D157">
         <v>2080</v>
@@ -4768,10 +4463,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C158" s="2">
+        <v>43830</v>
       </c>
       <c r="D158">
         <v>2010</v>
@@ -4796,10 +4489,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C159" s="2">
+        <v>44926</v>
       </c>
       <c r="D159">
         <v>2006</v>
@@ -4824,10 +4515,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C160" s="2">
+        <v>44561</v>
       </c>
       <c r="D160">
         <v>1980</v>
@@ -4852,10 +4541,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C161" s="2">
+        <v>44196</v>
       </c>
       <c r="D161">
         <v>1930</v>
@@ -4880,10 +4567,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C162" s="2">
+        <v>43465</v>
       </c>
       <c r="D162">
         <v>4732</v>
@@ -4908,10 +4593,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C163" s="2">
+        <v>43830</v>
       </c>
       <c r="D163">
         <v>4675</v>
@@ -4936,10 +4619,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C164" s="2">
+        <v>44926</v>
       </c>
       <c r="D164">
         <v>4542</v>
@@ -4964,10 +4645,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C165" s="2">
+        <v>44196</v>
       </c>
       <c r="D165">
         <v>4360</v>
@@ -4992,10 +4671,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C166" s="2">
+        <v>44561</v>
       </c>
       <c r="D166">
         <v>4000</v>
@@ -5020,10 +4697,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C167" s="2">
+        <v>44926</v>
       </c>
       <c r="D167">
         <v>352</v>
@@ -5048,10 +4723,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C168" s="2">
+        <v>43830</v>
       </c>
       <c r="D168">
         <v>326</v>
@@ -5076,10 +4749,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C169" s="2">
+        <v>43465</v>
       </c>
       <c r="D169">
         <v>319</v>
@@ -5104,10 +4775,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C170" s="2">
+        <v>44561</v>
       </c>
       <c r="D170">
         <v>315</v>
@@ -5132,10 +4801,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C171" s="2">
+        <v>44196</v>
       </c>
       <c r="D171">
         <v>290</v>
@@ -5160,10 +4827,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C172" s="2">
+        <v>44561</v>
       </c>
       <c r="D172">
         <v>1468</v>
@@ -5188,10 +4853,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C173" s="2">
+        <v>44926</v>
       </c>
       <c r="D173">
         <v>1440</v>
@@ -5216,10 +4879,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C174" s="2">
+        <v>44196</v>
       </c>
       <c r="D174">
         <v>1420</v>
@@ -5244,10 +4905,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C175" s="2">
+        <v>43830</v>
       </c>
       <c r="D175">
         <v>1299</v>
@@ -5272,10 +4931,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C176" s="2">
+        <v>43465</v>
       </c>
       <c r="D176">
         <v>1255</v>
@@ -5300,10 +4957,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C177" s="2">
+        <v>44926</v>
       </c>
       <c r="D177">
         <v>378</v>
@@ -5328,10 +4983,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C178" s="2">
+        <v>44561</v>
       </c>
       <c r="D178">
         <v>362</v>
@@ -5356,10 +5009,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C179" s="2">
+        <v>44196</v>
       </c>
       <c r="D179">
         <v>361</v>
@@ -5384,10 +5035,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C180" s="2">
+        <v>43830</v>
       </c>
       <c r="D180">
         <v>349</v>
@@ -5412,10 +5061,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C181" s="2">
+        <v>43465</v>
       </c>
       <c r="D181">
         <v>346</v>
@@ -5440,10 +5087,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C182" s="2">
+        <v>43830</v>
       </c>
       <c r="D182">
         <v>748</v>
@@ -5468,10 +5113,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C183" s="2">
+        <v>43465</v>
       </c>
       <c r="D183">
         <v>730</v>
@@ -5496,10 +5139,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C184" s="2">
+        <v>44561</v>
       </c>
       <c r="D184">
         <v>720</v>
@@ -5524,10 +5165,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C185" s="2">
+        <v>44196</v>
       </c>
       <c r="D185">
         <v>702</v>
@@ -5552,10 +5191,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C186" s="2">
+        <v>44926</v>
       </c>
       <c r="D186">
         <v>690</v>
@@ -5580,10 +5217,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C187" s="2">
+        <v>44926</v>
       </c>
       <c r="D187">
         <v>91</v>
@@ -5608,10 +5243,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C188" s="2">
+        <v>43830</v>
       </c>
       <c r="D188">
         <v>84</v>
@@ -5636,10 +5269,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C189" s="2">
+        <v>44561</v>
       </c>
       <c r="D189">
         <v>80</v>
@@ -5664,10 +5295,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C190" s="2">
+        <v>43465</v>
       </c>
       <c r="D190">
         <v>78</v>
@@ -5692,10 +5321,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C191" s="2">
+        <v>44196</v>
       </c>
       <c r="D191">
         <v>76</v>
@@ -5720,10 +5347,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C192" s="2">
+        <v>43830</v>
       </c>
       <c r="D192">
         <v>1225</v>
@@ -5748,10 +5373,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C193" s="2">
+        <v>44926</v>
       </c>
       <c r="D193">
         <v>1210</v>
@@ -5776,10 +5399,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C194" s="2">
+        <v>44561</v>
       </c>
       <c r="D194">
         <v>1190</v>
@@ -5804,10 +5425,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C195" s="2">
+        <v>43465</v>
       </c>
       <c r="D195">
         <v>1184</v>
@@ -5832,10 +5451,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C196" s="2">
+        <v>44196</v>
       </c>
       <c r="D196">
         <v>1160</v>
@@ -5860,10 +5477,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C197" s="2">
+        <v>44926</v>
       </c>
       <c r="D197">
         <v>9450</v>
@@ -5888,10 +5503,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C198" s="2">
+        <v>44196</v>
       </c>
       <c r="D198">
         <v>7690</v>
@@ -5916,10 +5529,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C199" s="2">
+        <v>43830</v>
       </c>
       <c r="D199">
         <v>7540</v>
@@ -5944,10 +5555,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C200" s="2">
+        <v>44561</v>
       </c>
       <c r="D200">
         <v>7360</v>
@@ -5972,10 +5581,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C201" s="2">
+        <v>43465</v>
       </c>
       <c r="D201">
         <v>6350</v>
@@ -6000,10 +5607,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C202" s="2">
+        <v>43465</v>
       </c>
       <c r="D202">
         <v>437</v>
@@ -6028,10 +5633,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C203" s="2">
+        <v>44926</v>
       </c>
       <c r="D203">
         <v>412</v>
@@ -6056,10 +5659,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C204" s="2">
+        <v>44561</v>
       </c>
       <c r="D204">
         <v>396</v>
@@ -6084,10 +5685,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C205" s="2">
+        <v>43830</v>
       </c>
       <c r="D205">
         <v>370</v>
@@ -6112,10 +5711,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C206" s="2">
+        <v>44196</v>
       </c>
       <c r="D206">
         <v>362</v>
@@ -6140,10 +5737,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C207" s="2">
+        <v>44926</v>
       </c>
       <c r="D207">
         <v>249</v>
@@ -6168,10 +5763,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C208" s="2">
+        <v>44561</v>
       </c>
       <c r="D208">
         <v>220</v>
@@ -6196,10 +5789,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C209" s="2">
+        <v>43830</v>
       </c>
       <c r="D209">
         <v>202</v>
@@ -6210,7 +5801,7 @@
         </is>
       </c>
       <c r="F209">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210">
@@ -6224,10 +5815,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C210" s="2">
+        <v>44196</v>
       </c>
       <c r="D210">
         <v>200</v>
@@ -6252,10 +5841,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C211" s="2">
+        <v>43465</v>
       </c>
       <c r="D211">
         <v>195</v>
@@ -6280,10 +5867,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C212" s="2">
+        <v>44926</v>
       </c>
       <c r="D212">
         <v>3820</v>
@@ -6308,10 +5893,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C213" s="2">
+        <v>44561</v>
       </c>
       <c r="D213">
         <v>3540</v>
@@ -6336,10 +5919,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C214" s="2">
+        <v>43830</v>
       </c>
       <c r="D214">
         <v>3419</v>
@@ -6364,10 +5945,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C215" s="2">
+        <v>43465</v>
       </c>
       <c r="D215">
         <v>3288</v>
@@ -6392,10 +5971,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C216" s="2">
+        <v>44196</v>
       </c>
       <c r="D216">
         <v>3230</v>
@@ -6420,10 +5997,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C217" s="2">
+        <v>44926</v>
       </c>
       <c r="D217">
         <v>16045</v>
@@ -6448,10 +6023,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C218" s="2">
+        <v>44561</v>
       </c>
       <c r="D218">
         <v>15440</v>
@@ -6476,10 +6049,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C219" s="2">
+        <v>43830</v>
       </c>
       <c r="D219">
         <v>15350</v>
@@ -6504,10 +6075,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C220" s="2">
+        <v>44196</v>
       </c>
       <c r="D220">
         <v>15270</v>
@@ -6532,10 +6101,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C221" s="2">
+        <v>43465</v>
       </c>
       <c r="D221">
         <v>14950</v>
@@ -6560,10 +6127,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C222" s="2">
+        <v>44926</v>
       </c>
       <c r="D222">
         <v>3090</v>
@@ -6588,10 +6153,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C223" s="2">
+        <v>44561</v>
       </c>
       <c r="D223">
         <v>2720</v>
@@ -6616,10 +6179,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C224" s="2">
+        <v>44196</v>
       </c>
       <c r="D224">
         <v>2710</v>
@@ -6644,10 +6205,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C225" s="2">
+        <v>43830</v>
       </c>
       <c r="D225">
         <v>2590</v>
@@ -6672,10 +6231,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C226" s="2">
+        <v>43465</v>
       </c>
       <c r="D226">
         <v>2370</v>
@@ -6700,10 +6257,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C227" s="2">
+        <v>43465</v>
       </c>
       <c r="D227">
         <v>4610</v>
@@ -6728,10 +6283,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C228" s="2">
+        <v>44926</v>
       </c>
       <c r="D228">
         <v>3140</v>
@@ -6756,10 +6309,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C229" s="2">
+        <v>44196</v>
       </c>
       <c r="D229">
         <v>2880</v>
@@ -6784,10 +6335,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C230" s="2">
+        <v>44561</v>
       </c>
       <c r="D230">
         <v>2860</v>
@@ -6812,10 +6361,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C231" s="2">
+        <v>43830</v>
       </c>
       <c r="D231">
         <v>2580</v>
@@ -6840,10 +6387,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C232" s="2">
+        <v>43465</v>
       </c>
       <c r="D232">
         <v>329</v>
@@ -6868,10 +6413,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C233" s="2">
+        <v>43830</v>
       </c>
       <c r="D233">
         <v>320</v>
@@ -6896,10 +6439,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C234" s="2">
+        <v>44926</v>
       </c>
       <c r="D234">
         <v>280</v>
@@ -6924,10 +6465,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C235" s="2">
+        <v>44196</v>
       </c>
       <c r="D235">
         <v>275</v>
@@ -6952,10 +6491,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C236" s="2">
+        <v>44561</v>
       </c>
       <c r="D236">
         <v>268</v>
@@ -6980,10 +6517,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C237" s="2">
+        <v>44926</v>
       </c>
       <c r="D237">
         <v>228</v>
@@ -7008,10 +6543,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C238" s="2">
+        <v>44561</v>
       </c>
       <c r="D238">
         <v>216</v>
@@ -7036,10 +6569,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C239" s="2">
+        <v>44196</v>
       </c>
       <c r="D239">
         <v>204</v>
@@ -7064,10 +6595,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C240" s="2">
+        <v>43830</v>
       </c>
       <c r="D240">
         <v>191</v>
@@ -7092,10 +6621,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C241" s="2">
+        <v>43465</v>
       </c>
       <c r="D241">
         <v>186</v>
@@ -7120,10 +6647,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C242" s="2">
+        <v>44926</v>
       </c>
       <c r="D242">
         <v>551</v>
@@ -7148,10 +6673,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C243" s="2">
+        <v>44561</v>
       </c>
       <c r="D243">
         <v>460</v>
@@ -7176,10 +6699,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C244" s="2">
+        <v>44196</v>
       </c>
       <c r="D244">
         <v>390</v>
@@ -7204,10 +6725,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C245" s="2">
+        <v>43830</v>
       </c>
       <c r="D245">
         <v>366</v>
@@ -7232,10 +6751,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C246" s="2">
+        <v>43465</v>
       </c>
       <c r="D246">
         <v>360</v>
@@ -7246,7 +6763,7 @@
         </is>
       </c>
       <c r="F246">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247">
@@ -7260,10 +6777,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C247" s="2">
+        <v>43465</v>
       </c>
       <c r="D247">
         <v>333</v>
@@ -7288,10 +6803,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C248" s="2">
+        <v>43830</v>
       </c>
       <c r="D248">
         <v>298</v>
@@ -7316,10 +6829,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C249" s="2">
+        <v>44926</v>
       </c>
       <c r="D249">
         <v>289</v>
@@ -7344,10 +6855,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C250" s="2">
+        <v>44561</v>
       </c>
       <c r="D250">
         <v>270</v>
@@ -7372,10 +6881,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C251" s="2">
+        <v>44196</v>
       </c>
       <c r="D251">
         <v>244</v>
@@ -7400,10 +6907,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C252" s="2">
+        <v>44926</v>
       </c>
       <c r="D252">
         <v>1007</v>
@@ -7428,10 +6933,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C253" s="2">
+        <v>44561</v>
       </c>
       <c r="D253">
         <v>860</v>
@@ -7456,10 +6959,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C254" s="2">
+        <v>44196</v>
       </c>
       <c r="D254">
         <v>690</v>
@@ -7484,10 +6985,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C255" s="2">
+        <v>43830</v>
       </c>
       <c r="D255">
         <v>671</v>
@@ -7512,10 +7011,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C256" s="2">
+        <v>43465</v>
       </c>
       <c r="D256">
         <v>658</v>
@@ -7540,10 +7037,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C257" s="2">
+        <v>43830</v>
       </c>
       <c r="D257">
         <v>256</v>
@@ -7568,10 +7063,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C258" s="2">
+        <v>43465</v>
       </c>
       <c r="D258">
         <v>242</v>
@@ -7596,10 +7089,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C259" s="2">
+        <v>44196</v>
       </c>
       <c r="D259">
         <v>230</v>
@@ -7624,10 +7115,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C260" s="2">
+        <v>44926</v>
       </c>
       <c r="D260">
         <v>217</v>
@@ -7638,7 +7127,7 @@
         </is>
       </c>
       <c r="F260">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261">
@@ -7652,10 +7141,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C261" s="2">
+        <v>44561</v>
       </c>
       <c r="D261">
         <v>195</v>
@@ -7680,10 +7167,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C262" s="2">
+        <v>44926</v>
       </c>
       <c r="D262">
         <v>16840</v>
@@ -7708,10 +7193,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C263" s="2">
+        <v>44561</v>
       </c>
       <c r="D263">
         <v>15106</v>
@@ -7736,10 +7219,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C264" s="2">
+        <v>43830</v>
       </c>
       <c r="D264">
         <v>15100</v>
@@ -7764,10 +7245,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C265" s="2">
+        <v>44196</v>
       </c>
       <c r="D265">
         <v>14970</v>
@@ -7792,10 +7271,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C266" s="2">
+        <v>43465</v>
       </c>
       <c r="D266">
         <v>14950</v>
@@ -7806,7 +7283,7 @@
         </is>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7820,10 +7297,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C267" s="2">
+        <v>44926</v>
       </c>
       <c r="D267">
         <v>1759</v>
@@ -7848,10 +7323,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C268" s="2">
+        <v>43465</v>
       </c>
       <c r="D268">
         <v>1639</v>
@@ -7876,10 +7349,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C269" s="2">
+        <v>44196</v>
       </c>
       <c r="D269">
         <v>1570</v>
@@ -7904,10 +7375,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C270" s="2">
+        <v>43830</v>
       </c>
       <c r="D270">
         <v>1543</v>
@@ -7932,10 +7401,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C271" s="2">
+        <v>44561</v>
       </c>
       <c r="D271">
         <v>1500</v>
@@ -7960,10 +7427,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C272" s="2">
+        <v>44926</v>
       </c>
       <c r="D272">
         <v>13880</v>
@@ -7988,10 +7453,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C273" s="2">
+        <v>44196</v>
       </c>
       <c r="D273">
         <v>11890</v>
@@ -8016,10 +7479,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C274" s="2">
+        <v>44561</v>
       </c>
       <c r="D274">
         <v>11860</v>
@@ -8044,10 +7505,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C275" s="2">
+        <v>43830</v>
       </c>
       <c r="D275">
         <v>11830</v>
@@ -8072,10 +7531,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C276" s="2">
+        <v>43465</v>
       </c>
       <c r="D276">
         <v>11650</v>
@@ -8100,10 +7557,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C277" s="2">
+        <v>43465</v>
       </c>
       <c r="D277">
         <v>895</v>
@@ -8114,7 +7569,7 @@
         </is>
       </c>
       <c r="F277">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278">
@@ -8128,10 +7583,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C278" s="2">
+        <v>43830</v>
       </c>
       <c r="D278">
         <v>890</v>
@@ -8156,10 +7609,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C279" s="2">
+        <v>44926</v>
       </c>
       <c r="D279">
         <v>796</v>
@@ -8184,10 +7635,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C280" s="2">
+        <v>44561</v>
       </c>
       <c r="D280">
         <v>758</v>
@@ -8212,10 +7661,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C281" s="2">
+        <v>44196</v>
       </c>
       <c r="D281">
         <v>738</v>
@@ -8240,10 +7687,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C282" s="2">
+        <v>43465</v>
       </c>
       <c r="D282">
         <v>3550</v>
@@ -8268,10 +7713,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C283" s="2">
+        <v>44926</v>
       </c>
       <c r="D283">
         <v>3007</v>
@@ -8296,10 +7739,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C284" s="2">
+        <v>43830</v>
       </c>
       <c r="D284">
         <v>2820</v>
@@ -8324,10 +7765,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C285" s="2">
+        <v>44196</v>
       </c>
       <c r="D285">
         <v>2780</v>
@@ -8352,10 +7791,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C286" s="2">
+        <v>44561</v>
       </c>
       <c r="D286">
         <v>2700</v>
@@ -8380,10 +7817,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C287" s="2">
+        <v>43465</v>
       </c>
       <c r="D287">
         <v>120</v>
@@ -8408,10 +7843,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C288" s="2">
+        <v>44926</v>
       </c>
       <c r="D288">
         <v>99</v>
@@ -8436,10 +7869,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C289" s="2">
+        <v>43830</v>
       </c>
       <c r="D289">
         <v>98</v>
@@ -8464,10 +7895,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C290" s="2">
+        <v>44196</v>
       </c>
       <c r="D290">
         <v>92</v>
@@ -8492,10 +7921,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C291" s="2">
+        <v>44561</v>
       </c>
       <c r="D291">
         <v>86</v>
@@ -8520,10 +7947,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C292" s="2">
+        <v>44926</v>
       </c>
       <c r="D292">
         <v>1359</v>
@@ -8548,10 +7973,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C293" s="2">
+        <v>44561</v>
       </c>
       <c r="D293">
         <v>1220</v>
@@ -8576,10 +7999,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C294" s="2">
+        <v>44196</v>
       </c>
       <c r="D294">
         <v>948</v>
@@ -8604,10 +8025,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C295" s="2">
+        <v>43465</v>
       </c>
       <c r="D295">
         <v>944</v>
@@ -8632,10 +8051,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C296" s="2">
+        <v>43830</v>
       </c>
       <c r="D296">
         <v>925</v>
@@ -8660,10 +8077,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C297" s="2">
+        <v>43465</v>
       </c>
       <c r="D297">
         <v>258</v>
@@ -8688,10 +8103,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C298" s="2">
+        <v>44561</v>
       </c>
       <c r="D298">
         <v>254</v>
@@ -8716,10 +8129,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C299" s="2">
+        <v>44196</v>
       </c>
       <c r="D299">
         <v>245</v>
@@ -8744,10 +8155,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C300" s="2">
+        <v>44926</v>
       </c>
       <c r="D300">
         <v>242</v>
@@ -8772,10 +8181,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C301" s="2">
+        <v>43830</v>
       </c>
       <c r="D301">
         <v>230</v>
@@ -8800,10 +8207,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C302" s="2">
+        <v>43465</v>
       </c>
       <c r="D302">
         <v>980</v>
@@ -8828,10 +8233,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C303" s="2">
+        <v>43830</v>
       </c>
       <c r="D303">
         <v>847</v>
@@ -8856,10 +8259,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C304" s="2">
+        <v>44196</v>
       </c>
       <c r="D304">
         <v>780</v>
@@ -8884,10 +8285,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C305" s="2">
+        <v>44926</v>
       </c>
       <c r="D305">
         <v>578</v>
@@ -8912,10 +8311,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C306" s="2">
+        <v>44561</v>
       </c>
       <c r="D306">
         <v>500</v>
@@ -8940,10 +8337,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C307" s="2">
+        <v>43465</v>
       </c>
       <c r="D307">
         <v>1491</v>
@@ -8968,10 +8363,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C308" s="2">
+        <v>43830</v>
       </c>
       <c r="D308">
         <v>1202</v>
@@ -8996,10 +8389,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C309" s="2">
+        <v>44561</v>
       </c>
       <c r="D309">
         <v>1140</v>
@@ -9024,10 +8415,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C310" s="2">
+        <v>44196</v>
       </c>
       <c r="D310">
         <v>1098</v>
@@ -9052,10 +8441,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C311" s="2">
+        <v>44926</v>
       </c>
       <c r="D311">
         <v>1040</v>
@@ -9080,10 +8467,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C312" s="2">
+        <v>43465</v>
       </c>
       <c r="D312">
         <v>211</v>
@@ -9108,10 +8493,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C313" s="2">
+        <v>43830</v>
       </c>
       <c r="D313">
         <v>205</v>
@@ -9136,10 +8519,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C314" s="2">
+        <v>44196</v>
       </c>
       <c r="D314">
         <v>201</v>
@@ -9164,10 +8545,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C315" s="2">
+        <v>44561</v>
       </c>
       <c r="D315">
         <v>198</v>
@@ -9192,10 +8571,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C316" s="2">
+        <v>44926</v>
       </c>
       <c r="D316">
         <v>182</v>
@@ -9220,10 +8597,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C317" s="2">
+        <v>43465</v>
       </c>
       <c r="D317">
         <v>430</v>
@@ -9248,10 +8623,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C318" s="2">
+        <v>44561</v>
       </c>
       <c r="D318">
         <v>394</v>
@@ -9262,7 +8635,7 @@
         </is>
       </c>
       <c r="F318">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="319">
@@ -9276,10 +8649,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C319" s="2">
+        <v>43830</v>
       </c>
       <c r="D319">
         <v>384</v>
@@ -9304,10 +8675,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C320" s="2">
+        <v>44196</v>
       </c>
       <c r="D320">
         <v>370</v>
@@ -9332,10 +8701,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C321" s="2">
+        <v>44926</v>
       </c>
       <c r="D321">
         <v>315</v>
@@ -9360,10 +8727,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C322" s="2">
+        <v>44926</v>
       </c>
       <c r="D322">
         <v>478</v>
@@ -9388,10 +8753,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C323" s="2">
+        <v>43465</v>
       </c>
       <c r="D323">
         <v>464</v>
@@ -9416,10 +8779,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C324" s="2">
+        <v>43830</v>
       </c>
       <c r="D324">
         <v>452</v>
@@ -9444,10 +8805,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C325" s="2">
+        <v>44561</v>
       </c>
       <c r="D325">
         <v>412</v>
@@ -9472,10 +8831,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C326" s="2">
+        <v>44196</v>
       </c>
       <c r="D326">
         <v>405</v>
@@ -9500,10 +8857,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C327" s="2">
+        <v>43465</v>
       </c>
       <c r="D327">
         <v>876</v>
@@ -9528,10 +8883,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C328" s="2">
+        <v>43830</v>
       </c>
       <c r="D328">
         <v>780</v>
@@ -9556,10 +8909,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C329" s="2">
+        <v>44561</v>
       </c>
       <c r="D329">
         <v>770</v>
@@ -9584,10 +8935,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C330" s="2">
+        <v>44196</v>
       </c>
       <c r="D330">
         <v>702</v>
@@ -9598,7 +8947,7 @@
         </is>
       </c>
       <c r="F330">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="331">
@@ -9612,10 +8961,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C331" s="2">
+        <v>44926</v>
       </c>
       <c r="D331">
         <v>682</v>
@@ -9640,10 +8987,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C332" s="2">
+        <v>44926</v>
       </c>
       <c r="D332">
         <v>111</v>
@@ -9668,10 +9013,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C333" s="2">
+        <v>43465</v>
       </c>
       <c r="D333">
         <v>100</v>
@@ -9696,10 +9039,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C334" s="2">
+        <v>44561</v>
       </c>
       <c r="D334">
         <v>90</v>
@@ -9724,10 +9065,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C335" s="2">
+        <v>43830</v>
       </c>
       <c r="D335">
         <v>88</v>
@@ -9752,10 +9091,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C336" s="2">
+        <v>44196</v>
       </c>
       <c r="D336">
         <v>85</v>
@@ -9780,10 +9117,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C337" s="2">
+        <v>44926</v>
       </c>
       <c r="D337">
         <v>439</v>
@@ -9808,10 +9143,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C338" s="2">
+        <v>43465</v>
       </c>
       <c r="D338">
         <v>426</v>
@@ -9836,10 +9169,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C339" s="2">
+        <v>43830</v>
       </c>
       <c r="D339">
         <v>421</v>
@@ -9864,10 +9195,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C340" s="2">
+        <v>44196</v>
       </c>
       <c r="D340">
         <v>420</v>
@@ -9892,10 +9221,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C341" s="2">
+        <v>44561</v>
       </c>
       <c r="D341">
         <v>417</v>
@@ -9920,10 +9247,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C342" s="2">
+        <v>44561</v>
       </c>
       <c r="D342">
         <v>1560</v>
@@ -9948,10 +9273,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C343" s="2">
+        <v>44926</v>
       </c>
       <c r="D343">
         <v>1480</v>
@@ -9976,10 +9299,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C344" s="2">
+        <v>44196</v>
       </c>
       <c r="D344">
         <v>1450</v>
@@ -10004,10 +9325,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C345" s="2">
+        <v>43830</v>
       </c>
       <c r="D345">
         <v>1376</v>
@@ -10032,10 +9351,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C346" s="2">
+        <v>43465</v>
       </c>
       <c r="D346">
         <v>1323</v>
@@ -10060,10 +9377,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C347" s="2">
+        <v>44926</v>
       </c>
       <c r="D347">
         <v>1934</v>
@@ -10088,10 +9403,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C348" s="2">
+        <v>43465</v>
       </c>
       <c r="D348">
         <v>1640</v>
@@ -10116,10 +9429,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C349" s="2">
+        <v>44561</v>
       </c>
       <c r="D349">
         <v>1550</v>
@@ -10144,10 +9455,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C350" s="2">
+        <v>43830</v>
       </c>
       <c r="D350">
         <v>1504</v>
@@ -10172,10 +9481,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C351" s="2">
+        <v>44196</v>
       </c>
       <c r="D351">
         <v>1500</v>
@@ -10200,10 +9507,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C352" s="2">
+        <v>43830</v>
       </c>
       <c r="D352">
         <v>340</v>
@@ -10228,10 +9533,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C353" s="2">
+        <v>44926</v>
       </c>
       <c r="D353">
         <v>325</v>
@@ -10256,10 +9559,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C354" s="2">
+        <v>43465</v>
       </c>
       <c r="D354">
         <v>320</v>
@@ -10284,10 +9585,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C355" s="2">
+        <v>44196</v>
       </c>
       <c r="D355">
         <v>320</v>
@@ -10312,10 +9611,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C356" s="2">
+        <v>44561</v>
       </c>
       <c r="D356">
         <v>310</v>
@@ -10340,10 +9637,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C357" s="2">
+        <v>43465</v>
       </c>
       <c r="D357">
         <v>398</v>
@@ -10368,10 +9663,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C358" s="2">
+        <v>44926</v>
       </c>
       <c r="D358">
         <v>396</v>
@@ -10396,10 +9689,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C359" s="2">
+        <v>44561</v>
       </c>
       <c r="D359">
         <v>372</v>
@@ -10424,10 +9715,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C360" s="2">
+        <v>43830</v>
       </c>
       <c r="D360">
         <v>370</v>
@@ -10438,7 +9727,7 @@
         </is>
       </c>
       <c r="F360">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361">
@@ -10452,10 +9741,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C361" s="2">
+        <v>44196</v>
       </c>
       <c r="D361">
         <v>362</v>
@@ -10466,7 +9753,7 @@
         </is>
       </c>
       <c r="F361">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362">
@@ -10480,10 +9767,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C362" s="2">
+        <v>43465</v>
       </c>
       <c r="D362">
         <v>7600</v>
@@ -10508,10 +9793,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C363" s="2">
+        <v>44926</v>
       </c>
       <c r="D363">
         <v>7382</v>
@@ -10536,10 +9819,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C364" s="2">
+        <v>43830</v>
       </c>
       <c r="D364">
         <v>6653</v>
@@ -10564,10 +9845,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C365" s="2">
+        <v>44561</v>
       </c>
       <c r="D365">
         <v>6650</v>
@@ -10592,10 +9871,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C366" s="2">
+        <v>44196</v>
       </c>
       <c r="D366">
         <v>6600</v>
@@ -10620,10 +9897,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C367" s="2">
+        <v>44926</v>
       </c>
       <c r="D367">
         <v>1371</v>
@@ -10648,10 +9923,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C368" s="2">
+        <v>44561</v>
       </c>
       <c r="D368">
         <v>1340</v>
@@ -10676,10 +9949,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C369" s="2">
+        <v>43465</v>
       </c>
       <c r="D369">
         <v>1333</v>
@@ -10704,10 +9975,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C370" s="2">
+        <v>43830</v>
       </c>
       <c r="D370">
         <v>1320</v>
@@ -10732,10 +10001,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C371" s="2">
+        <v>44196</v>
       </c>
       <c r="D371">
         <v>1150</v>
@@ -10760,10 +10027,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="C372" s="2">
+        <v>44926</v>
       </c>
       <c r="D372">
         <v>254</v>
@@ -10788,10 +10053,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="C373" s="2">
+        <v>44561</v>
       </c>
       <c r="D373">
         <v>246</v>
@@ -10816,10 +10079,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C374" s="2">
+        <v>43465</v>
       </c>
       <c r="D374">
         <v>240</v>
@@ -10844,10 +10105,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C375" s="2">
+        <v>43830</v>
       </c>
       <c r="D375">
         <v>237</v>
@@ -10872,10 +10131,8 @@
           <t>Vacas ordenhadas</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="C376" s="2">
+        <v>44196</v>
       </c>
       <c r="D376">
         <v>230</v>
@@ -10886,7 +10143,7 @@
         </is>
       </c>
       <c r="F376">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Municípios/Data/PPM_vacas_ordenhadas.xlsx
+++ b/Municípios/Data/PPM_vacas_ordenhadas.xlsx
@@ -423,14 +423,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C4">
         <v>215</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -441,14 +441,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C5">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -477,14 +477,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C7">
-        <v>3220</v>
+        <v>3270</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -495,11 +495,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C8">
-        <v>3270</v>
+        <v>3300</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -513,11 +513,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C9">
-        <v>3300</v>
+        <v>3777</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -531,14 +531,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C10">
-        <v>3777</v>
+        <v>3800</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -549,14 +549,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C11">
-        <v>3800</v>
+        <v>3990</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -603,11 +603,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C14">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>74</v>
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>74</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C16">
@@ -693,14 +693,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C19">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -711,11 +711,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C20">
-        <v>897</v>
+        <v>932</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -747,14 +747,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C22">
-        <v>848</v>
+        <v>687</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -765,14 +765,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C23">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -783,11 +783,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C24">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="D24">
         <v>36</v>
@@ -891,11 +891,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>75</v>
@@ -981,14 +981,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C35">
-        <v>1262</v>
+        <v>1329</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -999,14 +999,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C36">
-        <v>1329</v>
+        <v>1417</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1017,11 +1017,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C37">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>68</v>
@@ -1035,14 +1035,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C38">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D38">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
@@ -1053,11 +1053,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C39">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D39">
         <v>67</v>
@@ -1107,14 +1107,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C42">
-        <v>1511</v>
+        <v>1441</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -1125,14 +1125,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C43">
-        <v>1690</v>
+        <v>1511</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C44">
-        <v>1941</v>
+        <v>1690</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -1251,14 +1251,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C50">
-        <v>2427</v>
+        <v>2479</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C51">
-        <v>2479</v>
+        <v>2745</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C56">
-        <v>9206</v>
+        <v>12370</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1449,14 +1449,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C61">
-        <v>2450</v>
+        <v>2665</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -1503,11 +1503,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C64">
-        <v>6116</v>
+        <v>6140</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -1521,11 +1521,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C65">
-        <v>6140</v>
+        <v>6753</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -1539,14 +1539,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C66">
-        <v>6753</v>
+        <v>7903</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -1611,11 +1611,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C70">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1629,14 +1629,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C71">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D71">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -1665,14 +1665,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C73">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C74">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D74">
         <v>50</v>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C75">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D75">
         <v>50</v>
@@ -1719,14 +1719,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C76">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="D76">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C77">
-        <v>910</v>
+        <v>739</v>
       </c>
       <c r="D77">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
@@ -1755,14 +1755,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C78">
-        <v>990</v>
+        <v>910</v>
       </c>
       <c r="D78">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -1773,14 +1773,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C79">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="D79">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -1791,14 +1791,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C80">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="D80">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
@@ -1809,11 +1809,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C81">
-        <v>1150</v>
+        <v>1070</v>
       </c>
       <c r="D81">
         <v>34</v>
@@ -1881,14 +1881,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C85">
-        <v>920</v>
+        <v>1130</v>
       </c>
       <c r="D85">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -1899,14 +1899,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C86">
-        <v>1130</v>
+        <v>1300</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C87">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D87">
         <v>66</v>
@@ -1935,14 +1935,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C88">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D88">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89">
@@ -1953,11 +1953,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C89">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D89">
         <v>63</v>
@@ -1971,14 +1971,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C90">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D90">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C94">
-        <v>1439</v>
+        <v>1498</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -2115,14 +2115,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C98">
-        <v>2490</v>
+        <v>2640</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C99">
-        <v>2640</v>
+        <v>2780</v>
       </c>
       <c r="D99">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -2151,14 +2151,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C100">
-        <v>2780</v>
+        <v>3040</v>
       </c>
       <c r="D100">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2169,14 +2169,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C101">
-        <v>3040</v>
+        <v>3496</v>
       </c>
       <c r="D101">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -2187,14 +2187,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C102">
-        <v>3064</v>
+        <v>3126</v>
       </c>
       <c r="D102">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -2205,14 +2205,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C103">
-        <v>3126</v>
+        <v>3294</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C104">
-        <v>3294</v>
+        <v>3430</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2241,14 +2241,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C105">
-        <v>3430</v>
+        <v>3760</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2259,14 +2259,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C106">
-        <v>3760</v>
+        <v>3770</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C111">
-        <v>8815</v>
+        <v>12560</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -2367,14 +2367,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C112">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D112">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C113">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <v>68</v>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C114">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D114">
         <v>68</v>
@@ -2421,14 +2421,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C115">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D115">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116">
@@ -2439,11 +2439,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C116">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D116">
         <v>67</v>
@@ -2475,14 +2475,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C118">
-        <v>2240</v>
+        <v>2260</v>
       </c>
       <c r="D118">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -2493,11 +2493,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C119">
-        <v>2260</v>
+        <v>2320</v>
       </c>
       <c r="D119">
         <v>20</v>
@@ -2511,14 +2511,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C120">
-        <v>2320</v>
+        <v>3340</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -2529,14 +2529,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C121">
-        <v>3340</v>
+        <v>4742</v>
       </c>
       <c r="D121">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C123">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D123">
         <v>69</v>
@@ -2583,14 +2583,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C124">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D124">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125">
@@ -2691,14 +2691,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C130">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D130">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131">
@@ -2709,14 +2709,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C131">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="D131">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132">
@@ -2727,11 +2727,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C132">
-        <v>5165</v>
+        <v>4997</v>
       </c>
       <c r="D132">
         <v>9</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C133">
-        <v>5440</v>
+        <v>5165</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -2889,14 +2889,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C141">
-        <v>2028</v>
+        <v>2229</v>
       </c>
       <c r="D141">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
@@ -2979,14 +2979,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C146">
-        <v>3430</v>
+        <v>4770</v>
       </c>
       <c r="D146">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -2997,14 +2997,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C147">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="D147">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148">
@@ -3015,14 +3015,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C148">
-        <v>756</v>
+        <v>804</v>
       </c>
       <c r="D148">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
@@ -3033,14 +3033,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C149">
-        <v>804</v>
+        <v>897</v>
       </c>
       <c r="D149">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
@@ -3051,14 +3051,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C150">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="D150">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151">
@@ -3069,11 +3069,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C151">
-        <v>920</v>
+        <v>967</v>
       </c>
       <c r="D151">
         <v>37</v>
@@ -3159,14 +3159,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C156">
-        <v>895</v>
+        <v>1050</v>
       </c>
       <c r="D156">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C161">
-        <v>2080</v>
+        <v>2192</v>
       </c>
       <c r="D161">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -3321,14 +3321,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C165">
-        <v>4675</v>
+        <v>4600</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -3339,11 +3339,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C166">
-        <v>4732</v>
+        <v>4675</v>
       </c>
       <c r="D166">
         <v>10</v>
@@ -3393,14 +3393,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C169">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D169">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170">
@@ -3411,14 +3411,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C170">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D170">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171">
@@ -3429,14 +3429,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C171">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="D171">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172">
@@ -3447,14 +3447,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C172">
-        <v>1255</v>
+        <v>1299</v>
       </c>
       <c r="D172">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
@@ -3465,14 +3465,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C173">
-        <v>1299</v>
+        <v>1336</v>
       </c>
       <c r="D173">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -3537,11 +3537,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C177">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D177">
         <v>53</v>
@@ -3555,11 +3555,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C178">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D178">
         <v>53</v>
@@ -3573,11 +3573,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C179">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D179">
         <v>53</v>
@@ -3591,14 +3591,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C180">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D180">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C182">
-        <v>690</v>
+        <v>596</v>
       </c>
       <c r="D182">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C183">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D183">
         <v>43</v>
@@ -3663,14 +3663,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C184">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="D184">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
@@ -3681,14 +3681,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C185">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D185">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186">
@@ -3735,11 +3735,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C188">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D188">
         <v>73</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C189">
@@ -3825,11 +3825,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C193">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="D193">
         <v>33</v>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C194">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="D194">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195">
@@ -3897,14 +3897,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C197">
-        <v>6350</v>
+        <v>7360</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198">
@@ -3915,11 +3915,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C198">
-        <v>7360</v>
+        <v>7540</v>
       </c>
       <c r="D198">
         <v>6</v>
@@ -3933,11 +3933,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C199">
-        <v>7540</v>
+        <v>7690</v>
       </c>
       <c r="D199">
         <v>6</v>
@@ -3951,14 +3951,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C200">
-        <v>7690</v>
+        <v>9450</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
@@ -3969,11 +3969,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C201">
-        <v>9450</v>
+        <v>12952</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -4059,14 +4059,14 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C206">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D206">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C207">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D207">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C208">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D208">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209">
@@ -4113,14 +4113,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C209">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D209">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210">
@@ -4131,14 +4131,14 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C210">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D210">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211">
@@ -4185,14 +4185,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C213">
-        <v>3288</v>
+        <v>3419</v>
       </c>
       <c r="D213">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
@@ -4203,14 +4203,14 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C214">
-        <v>3419</v>
+        <v>3540</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C215">
-        <v>3540</v>
+        <v>3716</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -4257,11 +4257,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C217">
-        <v>14950</v>
+        <v>15270</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4275,11 +4275,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C218">
-        <v>15270</v>
+        <v>15350</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C219">
-        <v>15350</v>
+        <v>15440</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -4311,14 +4311,14 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C220">
-        <v>15440</v>
+        <v>16045</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -4329,14 +4329,14 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C221">
-        <v>16045</v>
+        <v>18710</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C222">
-        <v>2370</v>
+        <v>2590</v>
       </c>
       <c r="D222">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223">
@@ -4365,14 +4365,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C223">
-        <v>2590</v>
+        <v>2710</v>
       </c>
       <c r="D223">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224">
@@ -4383,11 +4383,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C224">
-        <v>2710</v>
+        <v>2720</v>
       </c>
       <c r="D224">
         <v>17</v>
@@ -4401,11 +4401,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C225">
-        <v>2720</v>
+        <v>3090</v>
       </c>
       <c r="D225">
         <v>17</v>
@@ -4419,14 +4419,14 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C226">
-        <v>3090</v>
+        <v>3460</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
@@ -4509,14 +4509,14 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C231">
-        <v>4610</v>
+        <v>4500</v>
       </c>
       <c r="D231">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
@@ -4581,14 +4581,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C235">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D235">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236">
@@ -4599,14 +4599,14 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C236">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D236">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237">
@@ -4617,14 +4617,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C237">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D237">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238">
@@ -4635,14 +4635,14 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C238">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D238">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239">
@@ -4653,11 +4653,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C239">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D239">
         <v>63</v>
@@ -4671,14 +4671,14 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C240">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D240">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241">
@@ -4689,14 +4689,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C241">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D241">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242">
@@ -4707,11 +4707,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C242">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D242">
         <v>51</v>
@@ -4725,14 +4725,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C243">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="D243">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="244">
@@ -4743,14 +4743,14 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C244">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="D244">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="245">
@@ -4761,11 +4761,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C245">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="D245">
         <v>46</v>
@@ -4779,11 +4779,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C246">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="D246">
         <v>46</v>
@@ -4851,14 +4851,14 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C250">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D250">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251">
@@ -4869,14 +4869,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C251">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="D251">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="252">
@@ -4887,11 +4887,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C252">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="D252">
         <v>45</v>
@@ -4905,11 +4905,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C253">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="D253">
         <v>45</v>
@@ -4923,14 +4923,14 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C254">
-        <v>690</v>
+        <v>860</v>
       </c>
       <c r="D254">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C255">
-        <v>860</v>
+        <v>1007</v>
       </c>
       <c r="D255">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256">
@@ -4959,14 +4959,14 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C256">
-        <v>1007</v>
+        <v>1109</v>
       </c>
       <c r="D256">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257">
@@ -5031,14 +5031,14 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C260">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D260">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="261">
@@ -5067,11 +5067,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C262">
-        <v>11650</v>
+        <v>11830</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -5085,11 +5085,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C263">
-        <v>11830</v>
+        <v>11860</v>
       </c>
       <c r="D263">
         <v>3</v>
@@ -5103,11 +5103,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C264">
-        <v>11860</v>
+        <v>11890</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -5121,11 +5121,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C265">
-        <v>11890</v>
+        <v>13880</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -5139,14 +5139,14 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C266">
-        <v>13880</v>
+        <v>20725</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -5157,14 +5157,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C267">
-        <v>14950</v>
+        <v>14970</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -5175,11 +5175,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C268">
-        <v>14970</v>
+        <v>15100</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -5193,11 +5193,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C269">
-        <v>15100</v>
+        <v>15106</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -5211,14 +5211,14 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C270">
-        <v>15106</v>
+        <v>16840</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -5229,11 +5229,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C271">
-        <v>16840</v>
+        <v>23936</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -5301,14 +5301,14 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C275">
-        <v>1639</v>
+        <v>1759</v>
       </c>
       <c r="D275">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276">
@@ -5319,11 +5319,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C276">
-        <v>1759</v>
+        <v>2071</v>
       </c>
       <c r="D276">
         <v>25</v>
@@ -5373,14 +5373,14 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C279">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D279">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280">
@@ -5391,14 +5391,14 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C280">
-        <v>890</v>
+        <v>796</v>
       </c>
       <c r="D280">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281">
@@ -5409,14 +5409,14 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C281">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D281">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282">
@@ -5499,14 +5499,14 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C286">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D286">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287">
@@ -5589,14 +5589,14 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C291">
-        <v>3550</v>
+        <v>3160</v>
       </c>
       <c r="D291">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292">
@@ -5625,14 +5625,14 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C293">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D293">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294">
@@ -5643,14 +5643,14 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C294">
-        <v>948</v>
+        <v>1220</v>
       </c>
       <c r="D294">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295">
@@ -5661,11 +5661,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C295">
-        <v>1220</v>
+        <v>1359</v>
       </c>
       <c r="D295">
         <v>31</v>
@@ -5679,14 +5679,14 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C296">
-        <v>1359</v>
+        <v>1457</v>
       </c>
       <c r="D296">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297">
@@ -5769,14 +5769,14 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C301">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D301">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="302">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C304">
-        <v>780</v>
+        <v>632</v>
       </c>
       <c r="D304">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="305">
@@ -5841,14 +5841,14 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C305">
-        <v>847</v>
+        <v>780</v>
       </c>
       <c r="D305">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="306">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C306">
-        <v>980</v>
+        <v>847</v>
       </c>
       <c r="D306">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="307">
@@ -5877,14 +5877,14 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C307">
-        <v>1040</v>
+        <v>925</v>
       </c>
       <c r="D307">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="308">
@@ -5895,14 +5895,14 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C308">
-        <v>1098</v>
+        <v>1040</v>
       </c>
       <c r="D308">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309">
@@ -5913,14 +5913,14 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C309">
-        <v>1140</v>
+        <v>1098</v>
       </c>
       <c r="D309">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="310">
@@ -5931,14 +5931,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C310">
-        <v>1202</v>
+        <v>1140</v>
       </c>
       <c r="D310">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311">
@@ -5949,14 +5949,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C311">
-        <v>1491</v>
+        <v>1202</v>
       </c>
       <c r="D311">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="312">
@@ -5967,14 +5967,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C312">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D312">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="313">
@@ -5985,14 +5985,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C313">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D313">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314">
@@ -6003,14 +6003,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C314">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D314">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="315">
@@ -6021,14 +6021,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C315">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D315">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="316">
@@ -6039,14 +6039,14 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C316">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="D316">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317">
@@ -6057,14 +6057,14 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C317">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D317">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318">
@@ -6075,14 +6075,14 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C318">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D318">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="319">
@@ -6093,14 +6093,14 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C319">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D319">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320">
@@ -6111,14 +6111,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C320">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D320">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="321">
@@ -6129,14 +6129,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C321">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D321">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="322">
@@ -6201,14 +6201,14 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C325">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="D325">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="326">
@@ -6219,11 +6219,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C326">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="D326">
         <v>47</v>
@@ -6291,14 +6291,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C330">
-        <v>1640</v>
+        <v>1934</v>
       </c>
       <c r="D330">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331">
@@ -6309,14 +6309,14 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C331">
-        <v>1934</v>
+        <v>2116</v>
       </c>
       <c r="D331">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332">
@@ -6345,14 +6345,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C333">
         <v>320</v>
       </c>
       <c r="D333">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334">
@@ -6363,11 +6363,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C334">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D334">
         <v>54</v>
@@ -6381,11 +6381,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C335">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D335">
         <v>54</v>
@@ -6399,14 +6399,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C336">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="D336">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="337">
@@ -6453,14 +6453,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C339">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D339">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="340">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C340">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="D340">
         <v>42</v>
@@ -6489,11 +6489,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C341">
-        <v>876</v>
+        <v>780</v>
       </c>
       <c r="D341">
         <v>42</v>
@@ -6561,14 +6561,14 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C345">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D345">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="346">
@@ -6579,14 +6579,14 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C346">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D346">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="347">
@@ -6597,14 +6597,14 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C347">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="D347">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="348">
@@ -6615,14 +6615,14 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C348">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D348">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="349">
@@ -6633,14 +6633,14 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C349">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D349">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="350">
@@ -6651,14 +6651,14 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C350">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D350">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="351">
@@ -6687,14 +6687,14 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C352">
-        <v>1323</v>
+        <v>1376</v>
       </c>
       <c r="D352">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="353">
@@ -6705,11 +6705,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C353">
-        <v>1376</v>
+        <v>1450</v>
       </c>
       <c r="D353">
         <v>28</v>
@@ -6723,14 +6723,14 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C354">
-        <v>1450</v>
+        <v>1480</v>
       </c>
       <c r="D354">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355">
@@ -6741,14 +6741,14 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C355">
-        <v>1480</v>
+        <v>1525</v>
       </c>
       <c r="D355">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="356">
@@ -6777,14 +6777,14 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C357">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="D357">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358">
@@ -6795,14 +6795,14 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="C358">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D358">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="359">
@@ -6813,14 +6813,14 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C359">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D359">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360">
@@ -6831,14 +6831,14 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C360">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D360">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="361">
@@ -6849,14 +6849,14 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C361">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D361">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362">
@@ -6939,14 +6939,14 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C366">
-        <v>7600</v>
+        <v>7406</v>
       </c>
       <c r="D366">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367">
@@ -6993,14 +6993,14 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C369">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="D369">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370">
@@ -7011,11 +7011,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C370">
-        <v>1340</v>
+        <v>1371</v>
       </c>
       <c r="D370">
         <v>30</v>
@@ -7029,14 +7029,14 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C371">
-        <v>1371</v>
+        <v>1410</v>
       </c>
       <c r="D371">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="372">
@@ -7083,14 +7083,14 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="C374">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D374">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="375">
@@ -7101,14 +7101,14 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C375">
         <v>246</v>
       </c>
       <c r="D375">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376">
